--- a/Model_data/Distributie_parameters.xlsx
+++ b/Model_data/Distributie_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,63 +446,73 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>KS P-value_x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Shape_surgery_duration</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Scale_surgery_duration</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Group_number</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Duration_Surgery</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Distribution_Length_of_stay</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>KS P-value_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Shape_Length_of_stay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Scale_Length_of_stay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wardtime</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Probability_IC_Assignment</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 6</t>
         </is>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>0.210230202729962</v>
       </c>
     </row>
@@ -512,51 +522,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.242917801519639</v>
+        <v>0.3344891799842807</v>
       </c>
       <c r="E2" t="n">
-        <v>185.221654581783</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>4.236809793310834</v>
+      </c>
+      <c r="F2" t="n">
+        <v>69.05772922230062</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>CAS</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>73.58666666666667</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1.42904591510951</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
       </c>
       <c r="K2" t="n">
-        <v>828.4300086134242</v>
+        <v>3.06748152021256e-17</v>
       </c>
       <c r="L2" t="n">
+        <v>0.3930953781649354</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15823.36188883422</v>
+      </c>
+      <c r="N2" t="n">
         <v>6439.506666666667</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.005319148936170213</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>0.05319148936170213</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -564,51 +580,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.370778097978992</v>
+        <v>0.7651861259879094</v>
       </c>
       <c r="E3" t="n">
-        <v>133.5951653628613</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>4.866780795165905</v>
+      </c>
+      <c r="F3" t="n">
+        <v>109.214794368625</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>CAS</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>118.4897959183673</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>weibull</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0.635841705586</v>
-      </c>
       <c r="K3" t="n">
-        <v>3733.775392027979</v>
+        <v>4.781007051968589e-08</v>
       </c>
       <c r="L3" t="n">
+        <v>0.678949130516324</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3675.452093641182</v>
+      </c>
+      <c r="N3" t="n">
         <v>6640.714285714285</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.1104895104895105</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -616,51 +638,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.894335824713217</v>
+        <v>0.7653140551988495</v>
       </c>
       <c r="E4" t="n">
-        <v>9.017025909488424</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
+        <v>8.642639104418446</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1152.255233738754</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CAS</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>44.13235294117647</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>lognorm</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1.046026372896816</v>
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>150.1666666666667</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>450.1516004400625</v>
+        <v>2.388822935705449e-21</v>
       </c>
       <c r="L4" t="n">
-        <v>2383.455882352941</v>
+        <v>0.6062026391163127</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5209.047262886883</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>8881.552083333334</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.002849002849002849</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.02849002849002849</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -668,51 +696,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.074888659744336</v>
+        <v>0.7472390910934841</v>
       </c>
       <c r="E5" t="n">
-        <v>58.00998315215466</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
+        <v>0.6539783856915823</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49.55882108958181</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>DER</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>51.13513513513514</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>lognorm</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8655499852717852</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>62.14285714285715</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>3016.530330989647</v>
+        <v>0.8821250875614814</v>
       </c>
       <c r="L5" t="n">
-        <v>7611.981981981982</v>
+        <v>1.788519616863714</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>411.4347118205343</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>1171.714285714286</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -720,51 +754,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.9550475311654</v>
+        <v>0.4303373672204452</v>
       </c>
       <c r="E6" t="n">
-        <v>90.00987536568346</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
+        <v>4.270866423159705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38.62858258167108</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>81.01417322834645</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1.111090046281859</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44.13235294117647</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>5697.104767001651</v>
+        <v>2.111115041826797e-21</v>
       </c>
       <c r="L6" t="n">
-        <v>5397.907232704402</v>
+        <v>1.098694208828881</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>442.0203738412832</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>2383.455882352941</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -772,51 +812,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>log-logistic</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4667674470764698</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.106239053268967</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44.75675857150178</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>51.13513513513514</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>weibull</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.272928073945446</v>
-      </c>
-      <c r="E7" t="n">
-        <v>176.4059703397893</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>158.96875</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1.190977181626556</v>
-      </c>
       <c r="K7" t="n">
-        <v>2138.28468386589</v>
+        <v>2.29442093821984e-11</v>
       </c>
       <c r="L7" t="n">
-        <v>1972.5234375</v>
+        <v>0.719582470550853</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5061.690865728993</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+        <v>7611.981981981982</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -824,51 +870,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.671513226051961</v>
+        <v>0.7448527739958145</v>
       </c>
       <c r="E8" t="n">
-        <v>55.41401002926476</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
+        <v>7.681114410967351</v>
+      </c>
+      <c r="F8" t="n">
+        <v>434.9845722303504</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>49.44249512670565</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>64.46616541353383</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>lognorm</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>0.9322930670364988</v>
-      </c>
       <c r="K8" t="n">
-        <v>400.2815529270325</v>
+        <v>7.886904936809863e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>1422.461988304094</v>
+        <v>1.435348224052173</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>773.5535397362237</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+        <v>5352.81954887218</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,47 +932,53 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>2.602063989711843</v>
+        <v>0.09155448908296615</v>
       </c>
       <c r="E9" t="n">
-        <v>76.42331058926851</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
+        <v>3.519952295174103</v>
+      </c>
+      <c r="F9" t="n">
+        <v>59.79300941030193</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>68.3516355140187</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4783716247650211</v>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>54.15476190476191</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>5210.398945736231</v>
+        <v>0.01251905420557065</v>
       </c>
       <c r="L9" t="n">
-        <v>2492.507009345794</v>
+        <v>2.40039080035233</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>701.5170481147751</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+        <v>2102.47619047619</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -928,51 +986,57 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>2.130203777676708</v>
+        <v>0.1449417517736201</v>
       </c>
       <c r="E10" t="n">
-        <v>132.8543380367101</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
+        <v>6.241202478966537</v>
+      </c>
+      <c r="F10" t="n">
+        <v>76.65515489469274</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>117.426735218509</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1.233201306010166</v>
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81.01417322834645</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>1555.339080864031</v>
+        <v>3.729788252965341e-36</v>
       </c>
       <c r="L10" t="n">
-        <v>4648.45501285347</v>
+        <v>0.5501469870329405</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04415841584158416</v>
+        <v>4051.696612123393</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4415841584158416</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+        <v>5397.907232704402</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -980,51 +1044,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>3.1209057122869</v>
+        <v>0.5327885224566857</v>
       </c>
       <c r="E11" t="n">
-        <v>216.3885525615453</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
+        <v>6.06536181019025</v>
+      </c>
+      <c r="F11" t="n">
+        <v>681.7288138065188</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>194.76</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1.04097923445127</v>
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>132.3157894736842</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>pearsonV</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>11092.06372025908</v>
+        <v>0.07881966859837464</v>
       </c>
       <c r="L11" t="n">
-        <v>11546.608</v>
+        <v>1.687150974133628</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09536423841059603</v>
+        <v>2991.731564821926</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9536423841059604</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+        <v>3168.894736842105</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1036,47 +1106,53 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3.139985984982547</v>
+        <v>0.2208947921786478</v>
       </c>
       <c r="E12" t="n">
-        <v>468.1566363995803</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5</v>
+        <v>5.613337228963088</v>
+      </c>
+      <c r="F12" t="n">
+        <v>339.0271534138294</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>202.2086956521739</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>pearsonV</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5023535240490293</v>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>71.96047430830039</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>2825.680302275624</v>
+        <v>0.2762776189671111</v>
       </c>
       <c r="L12" t="n">
-        <v>45036.01739130435</v>
+        <v>4.613645940790351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.267515923566879</v>
+        <v>381.8047163652952</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+        <v>442.6798418972332</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1084,51 +1160,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613754544721875</v>
+        <v>0.7013286135360244</v>
       </c>
       <c r="E13" t="n">
-        <v>41.82090602899027</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
+        <v>8.421798602770426</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.87790613995762</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>37.28518057285181</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1.476101817032386</v>
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100.0333333333333</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>410.3380884012237</v>
+        <v>0.236581491428243</v>
       </c>
       <c r="L13" t="n">
-        <v>365.6886674968867</v>
+        <v>4.133157717348254</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>416.4420326964031</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+        <v>564.15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1136,51 +1218,57 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>2.201159187791703</v>
+        <v>0.6541845614184005</v>
       </c>
       <c r="E14" t="n">
-        <v>79.33269386663534</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
+        <v>6.523587396220403</v>
+      </c>
+      <c r="F14" t="n">
+        <v>150.5926561725423</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>70.4127198917456</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4406168182450691</v>
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>158.96875</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K14" t="n">
-        <v>9248.807136249174</v>
+        <v>6.865986625880286e-09</v>
       </c>
       <c r="L14" t="n">
-        <v>4075.179972936401</v>
+        <v>0.3999833029191294</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1016227180527383</v>
+        <v>1645.602255930025</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+        <v>1972.5234375</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1188,51 +1276,57 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>7.175989646748056</v>
+        <v>0.294456379418206</v>
       </c>
       <c r="E15" t="n">
-        <v>822.809626487795</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
+        <v>4.489323890230587</v>
+      </c>
+      <c r="F15" t="n">
+        <v>44.74348362016917</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>130.9754098360656</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>pearsonV</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>3.376574705751079</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49.44249512670565</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
       </c>
       <c r="K15" t="n">
-        <v>1758.90472959101</v>
+        <v>1.134376672399414e-44</v>
       </c>
       <c r="L15" t="n">
-        <v>769.639344262295</v>
+        <v>0.6564106099560441</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>674.7831906966662</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+        <v>1422.461988304094</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1240,51 +1334,57 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>9.333317365135819</v>
+        <v>0.6331615622869848</v>
       </c>
       <c r="E16" t="n">
-        <v>2402.854181513972</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4</v>
+        <v>5.691899990646201</v>
+      </c>
+      <c r="F16" t="n">
+        <v>64.02985990209187</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>285.7213930348259</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>3.39344259424963</v>
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>68.3516355140187</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>1196.715154195116</v>
+        <v>2.622224908905484e-58</v>
       </c>
       <c r="L16" t="n">
-        <v>1333.756218905473</v>
+        <v>0.6032225059428737</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1166.226574516845</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+        <v>2492.507009345794</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1292,51 +1392,57 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>2.285881895383056</v>
+        <v>0.4552376534362871</v>
       </c>
       <c r="E17" t="n">
-        <v>67.53472469692598</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>5</v>
+        <v>5.951092517199922</v>
+      </c>
+      <c r="F17" t="n">
+        <v>583.0855620239896</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>154.376404494382</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5814830063282701</v>
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>117.426735218509</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>6934.839410242952</v>
+        <v>2.964492121771283e-08</v>
       </c>
       <c r="L17" t="n">
-        <v>12860.65168539326</v>
+        <v>1.350134616329802</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1976958525345622</v>
+        <v>1598.036174096491</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+        <v>4648.45501285347</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.04415841584158416</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4415841584158416</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1348,47 +1454,53 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>4.638809327289344</v>
+        <v>0.3096633230178325</v>
       </c>
       <c r="E18" t="n">
-        <v>14.12700176033339</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>LOS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
+        <v>11.66312513694897</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.69878336321687</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>65.53246753246754</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>lognorm</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>1.595464147778</v>
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>194.76</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K18" t="n">
-        <v>875.5863507622593</v>
+        <v>0.3419817383987179</v>
       </c>
       <c r="L18" t="n">
-        <v>9256.502164502164</v>
+        <v>2.496057254627786</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>6523.513243677305</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+        <v>11546.608</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.09536423841059603</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9536423841059604</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1396,51 +1508,57 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>8.465131103752473</v>
+        <v>0.6304349060414349</v>
       </c>
       <c r="E19" t="n">
-        <v>740.6970346281457</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+        <v>3.196742798689049</v>
+      </c>
+      <c r="F19" t="n">
+        <v>181.7854428653314</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>202.2086956521739</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.03597687934465377</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7983193670326311</v>
+      </c>
+      <c r="M19" t="n">
+        <v>39218.24523271497</v>
+      </c>
+      <c r="N19" t="n">
+        <v>45036.01739130435</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.267515923566879</v>
+      </c>
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="n">
-        <v>97.39130434782609</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>lognorm</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8430871940611585</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1036.598806600898</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1876.601449275362</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.1382978723404255</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1448,51 +1566,57 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>3.697261402885863</v>
+        <v>0.4098237224193121</v>
       </c>
       <c r="E20" t="n">
-        <v>149.1920153707188</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
+        <v>5.547880323581048</v>
+      </c>
+      <c r="F20" t="n">
+        <v>167.4443008215856</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>135.8121212121212</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1.32295159432609</v>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>37.28518057285181</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K20" t="n">
-        <v>3512.554362434204</v>
+        <v>0.02857385435459692</v>
       </c>
       <c r="L20" t="n">
-        <v>4646.939393939394</v>
+        <v>3.714948858643151</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7205882352941176</v>
+        <v>292.5537709037121</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+        <v>365.6886674968867</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1500,51 +1624,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>1.886219490584188</v>
+        <v>0.352014468359771</v>
       </c>
       <c r="E21" t="n">
-        <v>48.907278787539</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NEU</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+        <v>4.724789329152301</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64.45343052709124</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>70.4127198917456</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>pearsonV</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>8.385432921297316e-18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.198625339955195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>708.8853993375977</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4075.179972936401</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.1016227180527383</v>
+      </c>
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>43.12244897959184</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>1.284718501179735</v>
-      </c>
-      <c r="K21" t="n">
-        <v>444.8207037030538</v>
-      </c>
-      <c r="L21" t="n">
-        <v>571.469387755102</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1552,51 +1682,57 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>4.188745364145552</v>
+        <v>0.630798819415973</v>
       </c>
       <c r="E22" t="n">
-        <v>285.3886889925549</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
+        <v>5.141024508801475</v>
+      </c>
+      <c r="F22" t="n">
+        <v>124.5083613812828</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>85.53343701399689</v>
-      </c>
-      <c r="I22" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>130.9754098360656</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="J22" t="n">
-        <v>1.951806711134491</v>
-      </c>
       <c r="K22" t="n">
-        <v>336.9944637628801</v>
+        <v>3.613653621286128e-11</v>
       </c>
       <c r="L22" t="n">
-        <v>657.7480559875584</v>
+        <v>2.312304543086029</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>323.6617804090496</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+        <v>769.639344262295</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1604,51 +1740,57 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>4.942207199144254</v>
+        <v>0.06793081832698766</v>
       </c>
       <c r="E23" t="n">
-        <v>541.3591850341392</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
+        <v>5.198326406338135</v>
+      </c>
+      <c r="F23" t="n">
+        <v>277.1077542344182</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>131.8022813688213</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>pearsonV</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>2.093795480412853</v>
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>285.7213930348259</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K23" t="n">
-        <v>1345.488815273449</v>
+        <v>2.64546360910733e-13</v>
       </c>
       <c r="L23" t="n">
-        <v>1248.030418250951</v>
+        <v>0.5101312616576327</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1117.928875243029</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+        <v>1333.756218905473</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1660,47 +1802,53 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>5.151133053585009</v>
+        <v>0.1449024919973341</v>
       </c>
       <c r="E24" t="n">
-        <v>934.848371701916</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>4</v>
+        <v>2.226593872304314</v>
+      </c>
+      <c r="F24" t="n">
+        <v>213.6653282736581</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>218.8566037735849</v>
-      </c>
-      <c r="I24" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>154.376404494382</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>weibull</t>
         </is>
       </c>
-      <c r="J24" t="n">
-        <v>0.880738575697968</v>
-      </c>
       <c r="K24" t="n">
-        <v>5642.516833720631</v>
+        <v>3.321993438215879e-09</v>
       </c>
       <c r="L24" t="n">
-        <v>6295.120754716982</v>
+        <v>0.5969035924085657</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>6726.209092115244</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+        <v>12860.65168539326</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1976958525345622</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1708,51 +1856,57 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>9.853902973975943</v>
+        <v>0.5689895489592474</v>
       </c>
       <c r="E25" t="n">
-        <v>4102.6661268227</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>ORTR</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+        <v>4.025880338853081</v>
+      </c>
+      <c r="F25" t="n">
+        <v>57.12901363877812</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>LOS</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="n">
-        <v>455.2361111111111</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>pearsonV</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>5.300261409221935</v>
+      <c r="I25" t="n">
+        <v>65.53246753246754</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
       </c>
       <c r="K25" t="n">
-        <v>48025.64182436548</v>
+        <v>3.497000957634832e-20</v>
       </c>
       <c r="L25" t="n">
-        <v>10853.44907407407</v>
+        <v>0.3072500570857452</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003460207612456748</v>
+        <v>25907.26972196682</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03460207612456748</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+        <v>9256.502164502164</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1760,51 +1914,57 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>2.12184236811036</v>
+        <v>0.2573082664610747</v>
       </c>
       <c r="E26" t="n">
-        <v>140.3513981505203</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>PLCH</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+        <v>5.873788613979544</v>
+      </c>
+      <c r="F26" t="n">
+        <v>94.90227762372874</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="n">
-        <v>124.0281690140845</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>1.07616309121953</v>
+      <c r="I26" t="n">
+        <v>97.39130434782609</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K26" t="n">
-        <v>638.6050908667199</v>
+        <v>0.0002355235783059238</v>
       </c>
       <c r="L26" t="n">
-        <v>612.8732394366198</v>
+        <v>0.8754210251159779</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>991.6914104776637</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+        <v>1876.601449275362</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1382978723404255</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1812,51 +1972,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>1.731491070880148</v>
+        <v>0.9342364119024886</v>
       </c>
       <c r="E27" t="n">
-        <v>80.55137308473951</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+        <v>7.45369607154165</v>
+      </c>
+      <c r="F27" t="n">
+        <v>131.8075912955545</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>135.8121212121212</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.01466206435875645</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.68966774884694</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2963.861812700138</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4646.939393939394</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.7205882352941176</v>
+      </c>
+      <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>71.54313099041534</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>1.135671351482894</v>
-      </c>
-      <c r="K27" t="n">
-        <v>506.287801109445</v>
-      </c>
-      <c r="L27" t="n">
-        <v>475.8530351437699</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1864,51 +2030,57 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>2.483000490616047</v>
+        <v>0.8385245318385437</v>
       </c>
       <c r="E28" t="n">
-        <v>126.4591757546601</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2</v>
+        <v>2.741511268340053</v>
+      </c>
+      <c r="F28" t="n">
+        <v>222.5281297006248</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>112.1546052631579</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>1.192613483646598</v>
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>277.7291666666667</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K28" t="n">
-        <v>775.6295970770551</v>
+        <v>0.2521549195588847</v>
       </c>
       <c r="L28" t="n">
-        <v>925.0263157894736</v>
+        <v>1.607036618539899</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4868.47083360548</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+        <v>11210.1875</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.6229508196721312</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1916,51 +2088,57 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>2.27291089636055</v>
+        <v>0.08850380854529394</v>
       </c>
       <c r="E29" t="n">
-        <v>181.3163152131175</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3</v>
+        <v>2.135145419887259</v>
+      </c>
+      <c r="F29" t="n">
+        <v>417.8927703807027</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>160.7260869565217</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>2.258001022095443</v>
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>320.6418918918919</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>pearsonV</t>
+        </is>
       </c>
       <c r="K29" t="n">
-        <v>809.5182177305746</v>
+        <v>0.02860255258773725</v>
       </c>
       <c r="L29" t="n">
-        <v>1143.734782608696</v>
+        <v>1.055438214584142</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6710.548888247461</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+        <v>19520.64864864865</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.3621621621621622</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1968,51 +2146,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>3.273856293167944</v>
+        <v>0.6895437912860843</v>
       </c>
       <c r="E30" t="n">
-        <v>230.3136991842669</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>4</v>
+        <v>4.533623651450654</v>
+      </c>
+      <c r="F30" t="n">
+        <v>36.87627817042228</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NEU</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>206.9849246231156</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>9.353337608337384</v>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43.12244897959184</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K30" t="n">
-        <v>182.7359415798624</v>
+        <v>0.3205514585475924</v>
       </c>
       <c r="L30" t="n">
-        <v>1709.190954773869</v>
+        <v>2.766252380554126</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>319.2999819435868</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+        <v>571.469387755102</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2020,51 +2204,57 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>log-logistic</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8308410836721922</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.574813670776697</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39.97465520474071</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>OOG</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43.08045977011494</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>pearsonV</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>42</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5.524184239563454</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1247.84912062913</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>268.7939698492463</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>3.691707065928607</v>
-      </c>
       <c r="K31" t="n">
-        <v>5723.511983057313</v>
+        <v>0.7867700171126557</v>
       </c>
       <c r="L31" t="n">
-        <v>6372.045226130654</v>
+        <v>8.680143472593066</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6171532846715329</v>
+        <v>2679.420329369417</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+        <v>349.0459770114942</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2076,47 +2266,53 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>6.213168744139606</v>
+        <v>0.2151854842324021</v>
       </c>
       <c r="E32" t="n">
-        <v>273.2386066688568</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
+        <v>10.43110043166093</v>
+      </c>
+      <c r="F32" t="n">
+        <v>949.2164930579016</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>OOG</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>49.99634814363969</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>0.3745863591472663</v>
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>99.98895027624309</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
       </c>
       <c r="K32" t="n">
-        <v>5957.271060953377</v>
+        <v>5.526516400097578e-12</v>
       </c>
       <c r="L32" t="n">
-        <v>2231.512477175898</v>
+        <v>1.460763532224066</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>656.195392433575</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+        <v>632.4088397790056</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2124,51 +2320,57 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>3.211718159688894</v>
+        <v>0.1725050247294152</v>
       </c>
       <c r="E33" t="n">
-        <v>113.2806998300461</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>2</v>
+        <v>4.157635691390301</v>
+      </c>
+      <c r="F33" t="n">
+        <v>78.55485248980438</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>102.5578512396694</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0.3520500523061325</v>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>85.53343701399689</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K33" t="n">
-        <v>13893.19257734568</v>
+        <v>3.131124529300437e-18</v>
       </c>
       <c r="L33" t="n">
-        <v>4891.099173553719</v>
+        <v>0.6437433732540556</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>490.582155713631</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+        <v>657.7480559875584</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2176,51 +2378,57 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>1.749814882035571</v>
+        <v>0.6473563844980974</v>
       </c>
       <c r="E34" t="n">
-        <v>63.6624049293563</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
+        <v>4.644298817350471</v>
+      </c>
+      <c r="F34" t="n">
+        <v>124.4092400551604</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>56.29471544715447</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6133980882607428</v>
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>131.8022813688213</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>pearsonV</t>
+        </is>
       </c>
       <c r="K34" t="n">
-        <v>2414.783491477292</v>
+        <v>7.266252668348097e-06</v>
       </c>
       <c r="L34" t="n">
-        <v>1481.223577235772</v>
+        <v>2.080048145706223</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1265.795425872797</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+        <v>1248.030418250951</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2228,51 +2436,57 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>3.315490140913549</v>
+        <v>0.3520976205274307</v>
       </c>
       <c r="E35" t="n">
-        <v>101.7470524123375</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
+        <v>6.598910923197314</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1036.051604454756</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>91.81664098613251</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0.8736798353894426</v>
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>182.968253968254</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K35" t="n">
-        <v>1220.770310239078</v>
+        <v>0.004890532766102629</v>
       </c>
       <c r="L35" t="n">
-        <v>1066.562403697997</v>
+        <v>0.7726218410929062</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1362.870983270485</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+        <v>1974.238095238095</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2280,51 +2494,57 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>6.430444387955811</v>
+        <v>0.9956458351072337</v>
       </c>
       <c r="E36" t="n">
-        <v>967.3260969508956</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+        <v>4.389780491191054</v>
+      </c>
+      <c r="F36" t="n">
+        <v>202.9394718744585</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
-      <c r="H36" t="n">
-        <v>176.6172839506173</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>1.652875840066422</v>
+      <c r="I36" t="n">
+        <v>218.8566037735849</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
       </c>
       <c r="K36" t="n">
-        <v>974.665578288744</v>
+        <v>2.63325632487253e-13</v>
       </c>
       <c r="L36" t="n">
-        <v>1988.427983539095</v>
+        <v>1.204362690348549</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>4980.066410094024</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+        <v>6295.120754716982</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2332,51 +2552,57 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.05291734223078981</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.082890696551305</v>
+      </c>
+      <c r="F37" t="n">
+        <v>498.8764710862669</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ORTR</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>455.2361111111111</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>lognorm</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.3552976315551507</v>
-      </c>
-      <c r="E37" t="n">
-        <v>141.3491380199911</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>CAS</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>150.1666666666667</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5049245094739476</v>
-      </c>
       <c r="K37" t="n">
-        <v>17589.86128953519</v>
+        <v>3.907021163285201e-07</v>
       </c>
       <c r="L37" t="n">
-        <v>8881.552083333334</v>
+        <v>0.4581497931582455</v>
       </c>
       <c r="M37" t="n">
-        <v>0.002849002849002849</v>
+        <v>9474.346515274603</v>
       </c>
       <c r="N37" t="n">
-        <v>0.02849002849002849</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+        <v>10853.44907407407</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.003460207612456748</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.03460207612456748</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2384,51 +2610,57 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6034623897149903</v>
+        <v>0.10470882882892</v>
       </c>
       <c r="E38" t="n">
-        <v>50.43702795007789</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>DER</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+        <v>4.955444325784395</v>
+      </c>
+      <c r="F38" t="n">
+        <v>499.3570809796</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PLCH</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
-        <v>62.14285714285715</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>2.018200166533698</v>
+      <c r="I38" t="n">
+        <v>124.0281690140845</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K38" t="n">
-        <v>392.9814250764917</v>
+        <v>0.5384214630930733</v>
       </c>
       <c r="L38" t="n">
-        <v>1171.714285714286</v>
+        <v>3.983073006547584</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>438.6534310158753</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+        <v>612.8732394366198</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2436,51 +2668,57 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2702124153873295</v>
+        <v>0.4124361930156288</v>
       </c>
       <c r="E39" t="n">
-        <v>51.76699309664851</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+        <v>4.270717925526956</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16.75201505648205</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="n">
-        <v>54.15476190476191</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7083430849775766</v>
+      <c r="I39" t="n">
+        <v>71.54313099041534</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K39" t="n">
-        <v>1358.839200404596</v>
+        <v>0.2516613707722878</v>
       </c>
       <c r="L39" t="n">
-        <v>2102.47619047619</v>
+        <v>3.746539675560714</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>343.4724200058296</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+        <v>475.8530351437699</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2488,51 +2726,57 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>log-logistic</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9367281260517154</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.535536157621527</v>
+      </c>
+      <c r="F40" t="n">
+        <v>103.301132389527</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>112.1546052631579</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>lognorm</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>10</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.3682250601902156</v>
-      </c>
-      <c r="E40" t="n">
-        <v>119.7442329666727</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>3</v>
-      </c>
-      <c r="H40" t="n">
-        <v>132.3157894736842</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>2.666413192537932</v>
-      </c>
       <c r="K40" t="n">
-        <v>1228.925636350019</v>
+        <v>6.630792497483028e-08</v>
       </c>
       <c r="L40" t="n">
-        <v>3168.894736842105</v>
+        <v>0.7012529295203317</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>557.6676758982278</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+        <v>925.0263157894736</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2540,51 +2784,57 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3587532744920105</v>
+        <v>0.7756694522717729</v>
       </c>
       <c r="E41" t="n">
-        <v>88.88302615200895</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
+        <v>4.869976354740974</v>
+      </c>
+      <c r="F41" t="n">
+        <v>147.0008968337034</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>100.0333333333333</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>2.552611453285007</v>
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>160.7260869565217</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K41" t="n">
-        <v>221.0089589913827</v>
+        <v>6.025851276795487e-09</v>
       </c>
       <c r="L41" t="n">
-        <v>564.15</v>
+        <v>2.290153124556306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>823.3767592808374</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+        <v>1143.734782608696</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2592,51 +2842,57 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>pearsonV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2751464004438607</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10.04414662009237</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1882.171990932958</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>206.9849246231156</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>lognorm</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>30</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.384746389609757</v>
-      </c>
-      <c r="E42" t="n">
-        <v>41.07628719657178</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>OOG</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>43.08045977011494</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>6.352494726106826</v>
-      </c>
       <c r="K42" t="n">
-        <v>57.37388308592783</v>
+        <v>3.131096564575064e-12</v>
       </c>
       <c r="L42" t="n">
-        <v>349.0459770114942</v>
+        <v>0.3293449955674413</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1625.677545588297</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+        <v>1709.190954773869</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2644,51 +2900,57 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3769670872618081</v>
+        <v>0.4410464611321041</v>
       </c>
       <c r="E43" t="n">
-        <v>169.9445962795452</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>3</v>
+        <v>6.360031189887202</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42.26299554578339</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>182.968253968254</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>pearsonV</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>1.790787590551576</v>
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>268.7939698492463</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K43" t="n">
-        <v>1877.988223987663</v>
+        <v>2.039455683856594e-05</v>
       </c>
       <c r="L43" t="n">
-        <v>1974.238095238095</v>
+        <v>3.957160493049166</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5817.999664773841</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+        <v>6372.045226130654</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6171532846715329</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2696,51 +2958,57 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2625758872385899</v>
+        <v>0.9833450413767406</v>
       </c>
       <c r="E44" t="n">
-        <v>116.6516118962836</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
+        <v>7.160878537353325</v>
+      </c>
+      <c r="F44" t="n">
+        <v>137.9932357339841</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TAN</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>119.5130434782609</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>1.649458239256308</v>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>144.2289156626506</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K44" t="n">
-        <v>741.0472480911827</v>
+        <v>0.1493167807977717</v>
       </c>
       <c r="L44" t="n">
-        <v>1643.156521739131</v>
+        <v>3.144840222337868</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>515.6239510956707</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+        <v>721.7590361445783</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2748,51 +3016,57 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>pearsonV</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>47</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.09998333634971501</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.02981718689252</v>
+      </c>
+      <c r="F45" t="n">
+        <v>926.795473608704</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>91.81664098613251</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>7</v>
-      </c>
-      <c r="D45" t="n">
-        <v>8.382430826255705</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7.773310274711252</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>64.46616541353383</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>log-logistic</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>1.394051058011957</v>
-      </c>
       <c r="K45" t="n">
-        <v>616.763846322286</v>
+        <v>2.221347664277328e-58</v>
       </c>
       <c r="L45" t="n">
-        <v>5352.81954887218</v>
+        <v>0.9439451984553863</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1062.107126161943</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+        <v>1066.562403697997</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2800,51 +3074,57 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D46" t="n">
-        <v>6.150773511416018</v>
+        <v>0.9033693747752183</v>
       </c>
       <c r="E46" t="n">
-        <v>11.53968477129688</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
+        <v>14.60507235007116</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1628.089678010907</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>71.96047430830039</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>weibull</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>1.543226303728528</v>
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>119.5130434782609</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K46" t="n">
-        <v>497.5346814881333</v>
+        <v>2.699509669548361e-07</v>
       </c>
       <c r="L46" t="n">
-        <v>442.6798418972332</v>
+        <v>1.038104860753597</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>842.1083438306748</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+        <v>1643.156521739131</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2852,51 +3132,57 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>11.04834597445282</v>
+        <v>0.08029043172952255</v>
       </c>
       <c r="E47" t="n">
-        <v>8.647166323973957</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>OOG</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
+        <v>6.465899243242438</v>
+      </c>
+      <c r="F47" t="n">
+        <v>980.2221003610014</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>99.98895027624309</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>2.923995572710777</v>
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>176.0931677018634</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>log-logistic</t>
+        </is>
       </c>
       <c r="K47" t="n">
-        <v>216.2824204253881</v>
+        <v>0.0183933148045678</v>
       </c>
       <c r="L47" t="n">
-        <v>632.4088397790056</v>
+        <v>2.589625234501045</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>7647.418854329071</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+        <v>9615.409937888198</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2904,51 +3190,57 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>2.8305247445662</v>
+        <v>0.003027435332523021</v>
       </c>
       <c r="E48" t="n">
-        <v>222.053434258851</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>3</v>
+        <v>4.340449493456965</v>
+      </c>
+      <c r="F48" t="n">
+        <v>55.0952287582261</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>277.7291666666667</v>
-      </c>
-      <c r="I48" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>49.99634814363969</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>weibull</t>
         </is>
       </c>
-      <c r="J48" t="n">
-        <v>0.7953478335310693</v>
-      </c>
       <c r="K48" t="n">
-        <v>9502.846539646996</v>
+        <v>5.605265611851592e-149</v>
       </c>
       <c r="L48" t="n">
-        <v>11210.1875</v>
+        <v>0.5438131549683194</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6229508196721312</v>
+        <v>781.0287236055427</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+        <v>2231.512477175898</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2956,51 +3248,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>5.330390311617641</v>
+        <v>0.000111775591773145</v>
       </c>
       <c r="E49" t="n">
-        <v>171.0278362369958</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>5</v>
+        <v>0.2669847985209338</v>
+      </c>
+      <c r="F49" t="n">
+        <v>98.99789909380246</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>176.0931677018634</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>pearsonV</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>1.695180781920056</v>
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>102.5578512396694</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
       </c>
       <c r="K49" t="n">
-        <v>9222.804577063132</v>
+        <v>4.241065111817136e-32</v>
       </c>
       <c r="L49" t="n">
-        <v>9615.409937888198</v>
+        <v>0.3604157808990507</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>12327.35675990812</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+        <v>4891.099173553719</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3008,51 +3306,57 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D50" t="n">
-        <v>1.591975746026975</v>
+        <v>5.307609323129478e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>359.5551342018973</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>4</v>
+        <v>0.4566651102877543</v>
+      </c>
+      <c r="F50" t="n">
+        <v>50.41036660123115</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>320.6418918918919</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>pearsonV</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>1.055438214584142</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>56.29471544715447</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
       </c>
       <c r="K50" t="n">
-        <v>6710.548888247461</v>
+        <v>6.539928355538397e-53</v>
       </c>
       <c r="L50" t="n">
-        <v>19520.64864864865</v>
+        <v>0.6086085774667785</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3621621621621622</v>
+        <v>2402.870188741686</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+        <v>1481.223577235772</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3060,51 +3364,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D51" t="n">
-        <v>16.36424285169578</v>
+        <v>8.272304486775923e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>2206.080220489654</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>TAN</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
+        <v>6.854349184996106</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25.68296350955455</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>144.2289156626506</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>2.179841587167094</v>
+        <v>4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>176.6172839506173</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
       </c>
       <c r="K51" t="n">
-        <v>331.1061869787386</v>
+        <v>1.528324618038245e-09</v>
       </c>
       <c r="L51" t="n">
-        <v>721.7590361445783</v>
+        <v>0.9902431199663452</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1036.151171240644</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+        <v>1988.427983539095</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
